--- a/99_work/Node(Express)案件準備資料.xlsx
+++ b/99_work/Node(Express)案件準備資料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_work\01_Git\todo-aws\99_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF3141C-EF5E-407A-AB81-FF16AB3EF4E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC61E99D-4D60-4AA8-B4E3-EF027BB51B0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7335" tabRatio="850" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7335" tabRatio="850" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="案件向けトピック" sheetId="13" r:id="rId1"/>
@@ -18,16 +18,17 @@
     <sheet name="タスク" sheetId="10" r:id="rId3"/>
     <sheet name="資料まとめ" sheetId="16" r:id="rId4"/>
     <sheet name="ReactHookForm" sheetId="14" r:id="rId5"/>
-    <sheet name="OpenAPI Generator" sheetId="15" r:id="rId6"/>
-    <sheet name="Node変換" sheetId="12" r:id="rId7"/>
-    <sheet name="OpenAPI生成" sheetId="2" r:id="rId8"/>
-    <sheet name="開発環境構成" sheetId="3" r:id="rId9"/>
-    <sheet name="準備" sheetId="5" r:id="rId10"/>
-    <sheet name="material-ui" sheetId="11" r:id="rId11"/>
-    <sheet name="想定タスク" sheetId="6" r:id="rId12"/>
-    <sheet name="フロントの重み" sheetId="8" r:id="rId13"/>
-    <sheet name="用語集" sheetId="7" r:id="rId14"/>
-    <sheet name="リプレイス理由" sheetId="9" r:id="rId15"/>
+    <sheet name="RHF①" sheetId="17" r:id="rId6"/>
+    <sheet name="OpenAPI Generator" sheetId="15" r:id="rId7"/>
+    <sheet name="Node変換" sheetId="12" r:id="rId8"/>
+    <sheet name="OpenAPI生成" sheetId="2" r:id="rId9"/>
+    <sheet name="開発環境構成" sheetId="3" r:id="rId10"/>
+    <sheet name="準備" sheetId="5" r:id="rId11"/>
+    <sheet name="material-ui" sheetId="11" r:id="rId12"/>
+    <sheet name="想定タスク" sheetId="6" r:id="rId13"/>
+    <sheet name="フロントの重み" sheetId="8" r:id="rId14"/>
+    <sheet name="用語集" sheetId="7" r:id="rId15"/>
+    <sheet name="リプレイス理由" sheetId="9" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="1941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="2203">
   <si>
     <t>}</t>
   </si>
@@ -8323,6 +8324,792 @@
   </si>
   <si>
     <t>→ 問題なければ 全 API 仕様化 → 自動生成化 を進める</t>
+  </si>
+  <si>
+    <t>👉 React Hook Form は any を使わず、フォームの型を定義するのが正解</t>
+  </si>
+  <si>
+    <t>✅ 正しい書き方（基本）</t>
+  </si>
+  <si>
+    <t>① フォームの型を定義する</t>
+  </si>
+  <si>
+    <t>type FormValues = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name: string;</t>
+  </si>
+  <si>
+    <t>② useForm に型を渡す</t>
+  </si>
+  <si>
+    <t>const { register, handleSubmit } = useForm&lt;FormValues&gt;();</t>
+  </si>
+  <si>
+    <t>③ onSubmit の型を自動推論させる（最重要）</t>
+  </si>
+  <si>
+    <t>const onSubmit = (data: FormValues) =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  console.log(data);</t>
+  </si>
+  <si>
+    <t>✅ 完成形（そのまま実務で使える）</t>
+  </si>
+  <si>
+    <t>const RHF = () =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const { register, handleSubmit } = useForm&lt;FormValues&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const onSubmit = (data: FormValues) =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    console.log(data);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;form onSubmit={handleSubmit(onSubmit)}&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;input {...register("name")} /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;button type="submit"&gt;送信&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/form&gt;</t>
+  </si>
+  <si>
+    <t>export default RHF;</t>
+  </si>
+  <si>
+    <t>💡 なぜこれが「正解」なのか（重要）</t>
+  </si>
+  <si>
+    <t>Java / Spring Boot 脳で例えると…</t>
+  </si>
+  <si>
+    <t>class FormValues {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    String name;</t>
+  </si>
+  <si>
+    <t>void onSubmit(FormValues data) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    System.out.println(data.getName());</t>
+  </si>
+  <si>
+    <t>⬇ TypeScript ではこれを ジェネリクスでやっているだけ</t>
+  </si>
+  <si>
+    <t>useForm&lt;FormValues&gt;()</t>
+  </si>
+  <si>
+    <t>🚫 やってはいけない書き方</t>
+  </si>
+  <si>
+    <t>(data: any)</t>
+  </si>
+  <si>
+    <t>理由：</t>
+  </si>
+  <si>
+    <t>型安全ゼロ</t>
+  </si>
+  <si>
+    <t>補完効かない</t>
+  </si>
+  <si>
+    <t>実務ではレビューで確実に指摘される</t>
+  </si>
+  <si>
+    <t>⭐ 実務ワンポイント（React Hook Form流儀）</t>
+  </si>
+  <si>
+    <t>フォーム = 1つの型</t>
+  </si>
+  <si>
+    <t>any はほぼ使わない</t>
+  </si>
+  <si>
+    <t>useForm&lt;型&gt;() を書いた時点で</t>
+  </si>
+  <si>
+    <t>register("name")</t>
+  </si>
+  <si>
+    <t>onSubmit(data)</t>
+  </si>
+  <si>
+    <t>が 全部その型で統一 される</t>
+  </si>
+  <si>
+    <t>===========================================</t>
+  </si>
+  <si>
+    <t>■Reactの大原則（超重要）</t>
+  </si>
+  <si>
+    <t>JSXでのイベントハンドラは</t>
+  </si>
+  <si>
+    <t>「実行結果」ではなく「関数そのもの」を渡す</t>
+  </si>
+  <si>
+    <t>●handleSubmit(onSubmit) って何？</t>
+  </si>
+  <si>
+    <t>ここが React Hook Form 特有のポイント。</t>
+  </si>
+  <si>
+    <t>handleSubmit の正体</t>
+  </si>
+  <si>
+    <t>handleSubmit(onSubmit)</t>
+  </si>
+  <si>
+    <t>これは 「新しい関数を返す関数」 です。</t>
+  </si>
+  <si>
+    <t>擬似コードで書くと👇</t>
+  </si>
+  <si>
+    <t>function handleSubmit(userCallback) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return function (event) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    event.preventDefault();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    const data = collectFormValues();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    userCallback(data);</t>
+  </si>
+  <si>
+    <t>// ↓</t>
+  </si>
+  <si>
+    <t>(event) =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  event.preventDefault();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const data = ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  onSubmit(data);</t>
+  </si>
+  <si>
+    <t>だから JSX ではこうなる</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>「submitされたら</t>
+  </si>
+  <si>
+    <t>デフォルト送信止めて</t>
+  </si>
+  <si>
+    <t>フォーム値集めて</t>
+  </si>
+  <si>
+    <t>onSubmit(data) を呼ぶ関数」</t>
+  </si>
+  <si>
+    <t>を React に渡している</t>
+  </si>
+  <si>
+    <t>Java / Spring Boot 脳で例えると</t>
+  </si>
+  <si>
+    <t>❌ 即実行</t>
+  </si>
+  <si>
+    <t>controller.save();</t>
+  </si>
+  <si>
+    <t>✅ コールバック登録</t>
+  </si>
+  <si>
+    <t>button.onClick(controller::save);</t>
+  </si>
+  <si>
+    <t>もう一段わかりやすい例</t>
+  </si>
+  <si>
+    <t>普通の関数</t>
+  </si>
+  <si>
+    <t>const hello = () =&gt; console.log("hello");</t>
+  </si>
+  <si>
+    <t>&lt;button onClick={hello}&gt;OK&lt;/button&gt;   // ✅</t>
+  </si>
+  <si>
+    <t>&lt;button onClick={hello()}&gt;OK&lt;/button&gt; // ❌</t>
+  </si>
+  <si>
+    <t>●なぜ handleSubmit(onSubmit) は OK なの？</t>
+  </si>
+  <si>
+    <t>今実行しているのは handleSubmit</t>
+  </si>
+  <si>
+    <t>返ってくるのは「submit時に動く関数」</t>
+  </si>
+  <si>
+    <t>JSXには「関数」が渡っている</t>
+  </si>
+  <si>
+    <t>まとめ（これ覚えたらReact怖くない）</t>
+  </si>
+  <si>
+    <t>書き方</t>
+  </si>
+  <si>
+    <t>onSubmit={onSubmit}</t>
+  </si>
+  <si>
+    <t>関数を渡す</t>
+  </si>
+  <si>
+    <t>onSubmit={onSubmit()}</t>
+  </si>
+  <si>
+    <t>今すぐ実行 ❌</t>
+  </si>
+  <si>
+    <t>onSubmit={handleSubmit(onSubmit)}</t>
+  </si>
+  <si>
+    <t>ラップした関数を渡す ✅</t>
+  </si>
+  <si>
+    <t>==================================================</t>
+  </si>
+  <si>
+    <t>■&lt;input {...register("name")} /&gt;</t>
+  </si>
+  <si>
+    <t>👉 「この input を react-hook-form に登録する」ための一文</t>
+  </si>
+  <si>
+    <t>👉 value / onChange / onBlur / ref をまとめて渡している</t>
+  </si>
+  <si>
+    <t>まず構造を分解する</t>
+  </si>
+  <si>
+    <t>① register("name")</t>
+  </si>
+  <si>
+    <t>これは 関数呼び出し で、戻り値は👇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name: "name",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  onChange: function,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  onBlur: function,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ref: function</t>
+  </si>
+  <si>
+    <t>（※実際はもう少しプロパティあります）</t>
+  </si>
+  <si>
+    <t>② {...}（スプレッド構文）</t>
+  </si>
+  <si>
+    <t>{...register("name")}</t>
+  </si>
+  <si>
+    <t>これは オブジェクトを分解して props に展開 しています。</t>
+  </si>
+  <si>
+    <t>③ JSXに展開される最終形</t>
+  </si>
+  <si>
+    <t>&lt;input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name="name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  onChange={...}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  onBlur={...}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ref={...}</t>
+  </si>
+  <si>
+    <t>つまり👇</t>
+  </si>
+  <si>
+    <t>「この input の変更を全部 react-hook-form に通知する」</t>
+  </si>
+  <si>
+    <t>●なぜ value がないの？（重要）</t>
+  </si>
+  <si>
+    <t>React Hook Form は 非制御コンポーネント</t>
+  </si>
+  <si>
+    <t>&lt;input value={state} onChange={setState} /&gt;</t>
+  </si>
+  <si>
+    <t>⬆ これは 制御コンポーネント（useState管理）</t>
+  </si>
+  <si>
+    <t>&lt;input {...register("name")} /&gt;</t>
+  </si>
+  <si>
+    <t>⬆ これは DOMに任せる（useRef管理）</t>
+  </si>
+  <si>
+    <t>👉 無駄な再レンダリングが起きない</t>
+  </si>
+  <si>
+    <t>👉 フォームが多くても高速</t>
+  </si>
+  <si>
+    <t>●Java / Spring Boot 脳で例えると</t>
+  </si>
+  <si>
+    <t>❌ useState（全部自分で管理）</t>
+  </si>
+  <si>
+    <t>String name;</t>
+  </si>
+  <si>
+    <t>void onChange(String value) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  this.name = value;</t>
+  </si>
+  <si>
+    <t>✅ react-hook-form（フレームワークに任せる）</t>
+  </si>
+  <si>
+    <t>@RequestParam String name</t>
+  </si>
+  <si>
+    <t>「値の取得・管理はフレームワークがやる」</t>
+  </si>
+  <si>
+    <t>●じゃあ name って何？</t>
+  </si>
+  <si>
+    <t>これは👇</t>
+  </si>
+  <si>
+    <t>フォームデータのキー</t>
+  </si>
+  <si>
+    <t>onSubmit(data) の data.name に対応</t>
+  </si>
+  <si>
+    <t>onSubmit(data) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  console.log(data.name);</t>
+  </si>
+  <si>
+    <t>バリデーションもここで設定する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {...register("name", {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    required: "必須です",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    minLength: 3,</t>
+  </si>
+  <si>
+    <t>👉 HTML属性ではなく、RHFが検証</t>
+  </si>
+  <si>
+    <t>●エラー表示と組み合わせると実務感</t>
+  </si>
+  <si>
+    <t>const {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  register,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  handleSubmit,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  formState: { errors },</t>
+  </si>
+  <si>
+    <t>} = useForm&lt;FormValues&gt;();</t>
+  </si>
+  <si>
+    <t>&lt;input {...register("name", { required: true })} /&gt;</t>
+  </si>
+  <si>
+    <t>{errors.name &amp;&amp; &lt;p&gt;名前は必須です&lt;/p&gt;}</t>
+  </si>
+  <si>
+    <t>よくある誤解（重要）</t>
+  </si>
+  <si>
+    <t>❌ {...register}</t>
+  </si>
+  <si>
+    <t>→ 関数そのもの（意味なし）</t>
+  </si>
+  <si>
+    <t>❌ &lt;input register("name") /&gt;</t>
+  </si>
+  <si>
+    <t>→ JSXの書き方として不正</t>
+  </si>
+  <si>
+    <t>❌ onChange={register("name")}</t>
+  </si>
+  <si>
+    <t>→ registerは onChange ではない</t>
+  </si>
+  <si>
+    <t>★まとめ（これだけ覚えて）</t>
+  </si>
+  <si>
+    <t>→ 入力欄をフォームに登録</t>
+  </si>
+  <si>
+    <t>{...}</t>
+  </si>
+  <si>
+    <t>→ onChange / ref などを全部渡す</t>
+  </si>
+  <si>
+    <t>RHFは 非制御</t>
+  </si>
+  <si>
+    <t>data.name に値が入る</t>
+  </si>
+  <si>
+    <t>=====================================</t>
+  </si>
+  <si>
+    <t>■MUIとRHFの注意点</t>
+  </si>
+  <si>
+    <t>MUI でも register は基本効く（TextField は内部的に &lt;input&gt; を持ってて、props を input に渡せる）</t>
+  </si>
+  <si>
+    <t>でも 現場で詰まるのは「効くけどバグる/型が嫌/要件が増えると破綻する」ポイントがある</t>
+  </si>
+  <si>
+    <t>移行が大変になるのは “Controller が必要なコンポーネント” が多いとき（Select/Autocomplete/DatePicker 等）</t>
+  </si>
+  <si>
+    <t>以下、実務でハマる順にまとめます。容赦なくいきます。</t>
+  </si>
+  <si>
+    <t>1) TextField はだいたい register でOK（ただし書き方）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  label="Name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {...register("name", { required: "必須です" })}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  error={!!errors.name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  helperText={errors.name?.message}</t>
+  </si>
+  <si>
+    <t>●注意</t>
+  </si>
+  <si>
+    <t>register が返す ref / onChange / onBlur / name を TextField に渡しても、MUIがそれを 内部 input に中継してくれるから動きます。</t>
+  </si>
+  <si>
+    <t>2) “効かない” というより「効いてるのに挙動がおかしい」パターン</t>
+  </si>
+  <si>
+    <t>●(A) defaultValue / 初期値の取り扱い</t>
+  </si>
+  <si>
+    <t>RHFは基本「初期値は useForm({ defaultValues }) で入れる」</t>
+  </si>
+  <si>
+    <t>MUI側の defaultValue を使うと 二重管理になって地獄</t>
+  </si>
+  <si>
+    <t>✅正</t>
+  </si>
+  <si>
+    <t>useForm({ defaultValues: { name: "" } })</t>
+  </si>
+  <si>
+    <t>❌ありがち</t>
+  </si>
+  <si>
+    <t>&lt;TextField defaultValue="a" {...register("name")} /&gt;</t>
+  </si>
+  <si>
+    <t>(B) 値の整形が必要（数字/空文字/trim）</t>
+  </si>
+  <si>
+    <t>MUIは入力を文字列で返す。APIは number が欲しい。ここで事故る。</t>
+  </si>
+  <si>
+    <t>✅対策（軽いなら register の option）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  type="number"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {...register("age", { valueAsNumber: true })}</t>
+  </si>
+  <si>
+    <t>空欄を NaN にしたくないなら setValueAs を使う。</t>
+  </si>
+  <si>
+    <t>{...register("age", {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  setValueAs: (v) =&gt; (v === "" ? undefined : Number(v)),</t>
+  </si>
+  <si>
+    <t>})}</t>
+  </si>
+  <si>
+    <t>(C) onChange を自分で上書きして壊す</t>
+  </si>
+  <si>
+    <t>これ、移行で一番やる。</t>
+  </si>
+  <si>
+    <t>❌</t>
+  </si>
+  <si>
+    <t>&lt;TextField {...register("name")} onChange={(e) =&gt; setName(e.target.value)} /&gt;</t>
+  </si>
+  <si>
+    <t>これで RHFの onChange を潰して、値が追跡できなくなる。</t>
+  </si>
+  <si>
+    <t>✅やるなら “両方呼ぶ”</t>
+  </si>
+  <si>
+    <t>const reg = register("name");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {...reg}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  onChange={(e) =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    reg.onChange(e); // RHFに通知</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // 追加処理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }}</t>
+  </si>
+  <si>
+    <t>3) Controller が“ほぼ必須”になるMUIコンポーネント（移行が重い領域）</t>
+  </si>
+  <si>
+    <t>ここが「移行結構大変？」の答えの中心。</t>
+  </si>
+  <si>
+    <t>Controller必須になりやすいもの</t>
+  </si>
+  <si>
+    <t>Autocomplete（ほぼ必須）</t>
+  </si>
+  <si>
+    <t>Select（ケースによるがControllerが安定）</t>
+  </si>
+  <si>
+    <t>DatePicker / TimePicker（ほぼ必須）</t>
+  </si>
+  <si>
+    <t>Switch / Checkbox / RadioGroup（registerでも行けるがControllerの方が事故りにくい）</t>
+  </si>
+  <si>
+    <t>複雑なコンポーネント（値が event じゃなく value で来るやつ）</t>
+  </si>
+  <si>
+    <t>Autocomplete の典型（Controller）</t>
+  </si>
+  <si>
+    <t>import { Controller } from "react-hook-form";</t>
+  </si>
+  <si>
+    <t>import { Autocomplete, TextField } from "@mui/material";</t>
+  </si>
+  <si>
+    <t>&lt;Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name="prefecture"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  control={control}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  render={({ field, fieldState }) =&gt; (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;Autocomplete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      options={prefs}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      value={field.value ?? null}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      onChange={(_, v) =&gt; field.onChange(v)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      renderInput={(params) =&gt; (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {...params}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          label="都道府県"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          error={!!fieldState.error}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          helperText={fieldState.error?.message}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      )}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  )}</t>
+  </si>
+  <si>
+    <t>4) “移行が大変になる条件” を率直に言う</t>
+  </si>
+  <si>
+    <t>移行が軽いケース（楽勝）</t>
+  </si>
+  <si>
+    <t>TextField中心</t>
+  </si>
+  <si>
+    <t>input系（checkbox程度）</t>
+  </si>
+  <si>
+    <t>画面数少ない</t>
+  </si>
+  <si>
+    <t>バリデーション少ない</t>
+  </si>
+  <si>
+    <t>移行が重いケース（覚悟）</t>
+  </si>
+  <si>
+    <t>Autocomplete / DatePicker が多い</t>
+  </si>
+  <si>
+    <t>画面が多く、入力項目が多い</t>
+  </si>
+  <si>
+    <t>「入力途中でAPI検索」「依存セレクト」など動的UIが多い</t>
+  </si>
+  <si>
+    <t>既存が useState でガチガチに制御されてる（イベント加工が多い）</t>
+  </si>
+  <si>
+    <t>5) 現行が「全部MUI」のときの追加注意点（実務）</t>
+  </si>
+  <si>
+    <t>(1) FormHelperText / helperText を統一する</t>
+  </si>
+  <si>
+    <t>エラー表示を MUI標準で統一しないと画面ごとにバラける。</t>
+  </si>
+  <si>
+    <t>(2) disabled の扱い</t>
+  </si>
+  <si>
+    <t>RHFは disabled を追跡しないことがある → 送信されない/される差が出る</t>
+  </si>
+  <si>
+    <t>shouldUnregister の設定や setValue と組み合わせで差が出る</t>
+  </si>
+  <si>
+    <t>(3) reset() / 編集画面</t>
+  </si>
+  <si>
+    <t>編集画面（初期値をAPIから取ってくる）で reset の理解が必須</t>
+  </si>
+  <si>
+    <t>defaultValues は初回だけ</t>
+  </si>
+  <si>
+    <t>API後は reset(fetched) が基本</t>
+  </si>
+  <si>
+    <t>(4) register の ref が通らない特殊ケース</t>
+  </si>
+  <si>
+    <t>inputRef が必要なコンポーネント、あるいはラッパーで ref が落ちると詰む</t>
+  </si>
+  <si>
+    <t>（社内共通コンポーネント化してると起きがち）</t>
+  </si>
+  <si>
+    <t>●結論：移行は「Controller対象がどれだけあるか」で難易度が決まる</t>
+  </si>
+  <si>
+    <t>TextField中心 → 移行はそこまで大変じゃない</t>
+  </si>
+  <si>
+    <t>Autocomplete / DatePicker だらけ → Controller地獄になって大変</t>
+  </si>
+  <si>
+    <t>もし現行の MUI で、</t>
+  </si>
+  <si>
+    <t>使ってる入力部品一覧（TextField/Select/Autocomplete/DatePicker/Checkbox…）</t>
+  </si>
+  <si>
+    <t>フォームの管理方法（useState なのか、すでにRHFなのか）</t>
+  </si>
+  <si>
+    <t>が分かれば、**「移行コスト見積もり」と「優先順（どこから置き換えるべきか）」**まで具体化して出します。</t>
+  </si>
+  <si>
+    <t>（スクショでもOK）</t>
   </si>
 </sst>
 </file>
@@ -8965,13 +9752,13 @@
     <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="43" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -10367,6 +11154,402 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1509A573-1DE9-42B0-BA40-6A09D242D4F0}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:L89"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="39.75">
+      <c r="A1" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="22.5">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="22.5">
+      <c r="A11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="24">
+      <c r="A18" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="22.5">
+      <c r="A28" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="39.75">
+      <c r="A36" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="30">
+      <c r="A38" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="30">
+      <c r="A46" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="22.5">
+      <c r="A48" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="H51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="H52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="H53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="30">
+      <c r="A55" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="5"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="39.75">
+      <c r="A73" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" t="s">
+        <v>104</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="L77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="5"/>
+      <c r="L79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L80" s="5"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="5"/>
+      <c r="L81" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L82" s="5"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="5"/>
+      <c r="L83" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L84" s="5"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="5"/>
+      <c r="L85" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L86" s="5"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="L87" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="L88" s="5"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="L89" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC860844-0A66-459F-AC69-E860D4490D8F}">
   <dimension ref="A1:N40"/>
   <sheetViews>
@@ -10587,7 +11770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B363627-EE5C-46B5-968D-E5C24DF579C3}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -10668,7 +11851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BAC5AF-198A-4C84-B8A3-DB8DD27DFAB9}">
   <dimension ref="A1:U179"/>
   <sheetViews>
@@ -11396,7 +12579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2557D4B5-C11E-4351-8063-F779F52245EE}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11409,7 +12592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECB0356-2854-4D23-B6E0-D99684566748}">
   <dimension ref="A14:B38"/>
   <sheetViews>
@@ -11504,7 +12687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DAABDE-EF6D-4A90-8A29-C2F47BE28958}">
   <dimension ref="A1:A185"/>
   <sheetViews>
@@ -13875,7 +15058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4B12CF-35FD-40FF-9A81-E0D255FE7967}">
   <dimension ref="A2:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -13925,24 +15108,24 @@
       <c r="A7" t="s">
         <v>455</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="80" t="s">
         <v>1011</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>455</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="81" t="s">
         <v>1012</v>
       </c>
     </row>
@@ -13950,12 +15133,12 @@
       <c r="A9" t="s">
         <v>455</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="81" t="s">
         <v>1367</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="81" t="s">
         <v>1368</v>
       </c>
     </row>
@@ -13963,12 +15146,12 @@
       <c r="A11" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="81" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="81" t="s">
         <v>1771</v>
       </c>
     </row>
@@ -14952,7 +16135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DF37AD-6ECB-45C9-A39E-56A46A379C8C}">
   <dimension ref="A2:L217"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -15985,6 +17168,1532 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C097AA-459C-4BC7-9BE4-11E78E6E061A}">
+  <dimension ref="A1:C306"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="50.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="C45" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="C46" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="C47" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="C49" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="C50" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="C51" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="C52" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="C53" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="C54" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="3" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="3" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="3" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="B64" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="B65" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="B66" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="C67" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="C68" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="C69" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="C70" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="C71" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="C72" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="C73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="3" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="B75" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="B76" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="B77" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="B78" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="B79" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="B80" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="B82" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="B83" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="B84" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="B85" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="B86" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="B87" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="B88" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="B89" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="3" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="B91" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="B92" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="B93" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="B94" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="3" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="B96" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="B97" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="B98" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="B99" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="3" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="B101" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="B102" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="B103" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="B104" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="3" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="B106" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C106" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="B107" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="B108" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="B109" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="3" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="3" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="B114" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="B115" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="B116" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="3" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="B118" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="B119" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="B120" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="B121" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="B122" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="B123" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="B124" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="B126" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="3" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="B128" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="B129" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="3" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="B131" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="B132" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="B133" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="B134" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="B135" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="B136" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="B137" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="B138" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="3" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="B140" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="B141" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="B142" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="B143" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="B144" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="B145" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="B146" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="3" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="B148" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="B149" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="B150" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="B151" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="B152" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="B153" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="B154" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="B155" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="3" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="B157" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="B158" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="B159" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="B160" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="B161" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="B162" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="B163" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="B164" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="B165" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="B166" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="B167" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="B168" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="B169" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="B170" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="B171" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="3" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="B173" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="B174" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="B175" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="B176" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="B177" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="B178" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="B179" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="B180" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="B181" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="B182" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="B183" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="B184" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="B185" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="B186" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="3" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="B188" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="B189" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="B190" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="B191" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="B192" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="B193" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="3" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="3" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="B198" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="B199" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="B200" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="B201" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="3" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="B203" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="B204" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="B205" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="B206" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="B207" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="B208" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="3" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="B210" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="3" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="B212" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="C213" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="C214" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="C215" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="C216" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="C217" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="C218" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="B219" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="C220" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="C221" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="C222" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="C223" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="C224" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3">
+      <c r="C225" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3">
+      <c r="C226" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3">
+      <c r="C227" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3">
+      <c r="C228" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3">
+      <c r="C229" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3">
+      <c r="B230" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3">
+      <c r="C231" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3">
+      <c r="C232" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3">
+      <c r="C233" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3">
+      <c r="C234" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3">
+      <c r="C235" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3">
+      <c r="C236" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3">
+      <c r="C237" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3">
+      <c r="C238" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3">
+      <c r="C239" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3">
+      <c r="C240" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="C241" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="C242" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="C243" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="3" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="B245" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="B246" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="B247" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="B248" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="B249" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="B250" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="B251" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="B252" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="B253" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="B254" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="B255" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="B256" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="B273" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="3" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="B275" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="C276" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="C277" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="C278" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="C279" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="B280" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="C281" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="C282" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="C283" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="C284" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="3" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="B286" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="B287" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="B288" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="B289" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="B290" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="B291" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="B292" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="B293" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="B294" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="B295" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="B296" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="B297" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="3" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="B299" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="B300" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="B302" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="B303" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="B304" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8780A4F-A25E-48D2-9241-22CE34F9C712}">
   <dimension ref="A2:Y625"/>
   <sheetViews>
@@ -16813,26 +19522,26 @@
       </c>
     </row>
     <row r="172" spans="1:20">
-      <c r="A172" s="81"/>
-      <c r="B172" s="81"/>
-      <c r="C172" s="81"/>
-      <c r="D172" s="81"/>
-      <c r="E172" s="81"/>
-      <c r="F172" s="81"/>
-      <c r="G172" s="81"/>
-      <c r="H172" s="81"/>
-      <c r="I172" s="81"/>
-      <c r="J172" s="81"/>
-      <c r="K172" s="81"/>
-      <c r="L172" s="81"/>
-      <c r="M172" s="81"/>
-      <c r="N172" s="81"/>
-      <c r="O172" s="81"/>
-      <c r="P172" s="81"/>
-      <c r="Q172" s="81"/>
-      <c r="R172" s="81"/>
-      <c r="S172" s="81"/>
-      <c r="T172" s="81"/>
+      <c r="A172" s="80"/>
+      <c r="B172" s="80"/>
+      <c r="C172" s="80"/>
+      <c r="D172" s="80"/>
+      <c r="E172" s="80"/>
+      <c r="F172" s="80"/>
+      <c r="G172" s="80"/>
+      <c r="H172" s="80"/>
+      <c r="I172" s="80"/>
+      <c r="J172" s="80"/>
+      <c r="K172" s="80"/>
+      <c r="L172" s="80"/>
+      <c r="M172" s="80"/>
+      <c r="N172" s="80"/>
+      <c r="O172" s="80"/>
+      <c r="P172" s="80"/>
+      <c r="Q172" s="80"/>
+      <c r="R172" s="80"/>
+      <c r="S172" s="80"/>
+      <c r="T172" s="80"/>
     </row>
     <row r="173" spans="1:20">
       <c r="A173" s="3" t="s">
@@ -17020,31 +19729,31 @@
       </c>
     </row>
     <row r="212" spans="1:25">
-      <c r="A212" s="81"/>
-      <c r="B212" s="81"/>
-      <c r="C212" s="81"/>
-      <c r="D212" s="81"/>
-      <c r="E212" s="81"/>
-      <c r="F212" s="81"/>
-      <c r="G212" s="81"/>
-      <c r="H212" s="81"/>
-      <c r="I212" s="81"/>
-      <c r="J212" s="81"/>
-      <c r="K212" s="81"/>
-      <c r="L212" s="81"/>
-      <c r="M212" s="81"/>
-      <c r="N212" s="81"/>
-      <c r="O212" s="81"/>
-      <c r="P212" s="81"/>
-      <c r="Q212" s="81"/>
-      <c r="R212" s="81"/>
-      <c r="S212" s="81"/>
-      <c r="T212" s="81"/>
-      <c r="U212" s="81"/>
-      <c r="V212" s="81"/>
-      <c r="W212" s="81"/>
-      <c r="X212" s="81"/>
-      <c r="Y212" s="81"/>
+      <c r="A212" s="80"/>
+      <c r="B212" s="80"/>
+      <c r="C212" s="80"/>
+      <c r="D212" s="80"/>
+      <c r="E212" s="80"/>
+      <c r="F212" s="80"/>
+      <c r="G212" s="80"/>
+      <c r="H212" s="80"/>
+      <c r="I212" s="80"/>
+      <c r="J212" s="80"/>
+      <c r="K212" s="80"/>
+      <c r="L212" s="80"/>
+      <c r="M212" s="80"/>
+      <c r="N212" s="80"/>
+      <c r="O212" s="80"/>
+      <c r="P212" s="80"/>
+      <c r="Q212" s="80"/>
+      <c r="R212" s="80"/>
+      <c r="S212" s="80"/>
+      <c r="T212" s="80"/>
+      <c r="U212" s="80"/>
+      <c r="V212" s="80"/>
+      <c r="W212" s="80"/>
+      <c r="X212" s="80"/>
+      <c r="Y212" s="80"/>
     </row>
     <row r="213" spans="1:25">
       <c r="A213">
@@ -17611,27 +20320,27 @@
       </c>
     </row>
     <row r="331" spans="1:19" ht="24">
-      <c r="A331" s="84" t="s">
+      <c r="A331" s="83" t="s">
         <v>1484</v>
       </c>
-      <c r="B331" s="81"/>
-      <c r="C331" s="81"/>
-      <c r="D331" s="81"/>
-      <c r="E331" s="81"/>
-      <c r="F331" s="81"/>
-      <c r="G331" s="81"/>
-      <c r="H331" s="81"/>
-      <c r="I331" s="81"/>
-      <c r="J331" s="81"/>
-      <c r="K331" s="81"/>
-      <c r="L331" s="81"/>
-      <c r="M331" s="81"/>
-      <c r="N331" s="81"/>
-      <c r="O331" s="81"/>
-      <c r="P331" s="81"/>
-      <c r="Q331" s="81"/>
-      <c r="R331" s="81"/>
-      <c r="S331" s="81"/>
+      <c r="B331" s="80"/>
+      <c r="C331" s="80"/>
+      <c r="D331" s="80"/>
+      <c r="E331" s="80"/>
+      <c r="F331" s="80"/>
+      <c r="G331" s="80"/>
+      <c r="H331" s="80"/>
+      <c r="I331" s="80"/>
+      <c r="J331" s="80"/>
+      <c r="K331" s="80"/>
+      <c r="L331" s="80"/>
+      <c r="M331" s="80"/>
+      <c r="N331" s="80"/>
+      <c r="O331" s="80"/>
+      <c r="P331" s="80"/>
+      <c r="Q331" s="80"/>
+      <c r="R331" s="80"/>
+      <c r="S331" s="80"/>
     </row>
     <row r="333" spans="1:19">
       <c r="A333" s="3" t="s">
@@ -17987,30 +20696,30 @@
       </c>
     </row>
     <row r="398" spans="1:22">
-      <c r="A398" s="83" t="s">
+      <c r="A398" s="82" t="s">
         <v>1552</v>
       </c>
-      <c r="B398" s="81"/>
-      <c r="C398" s="81"/>
-      <c r="D398" s="81"/>
-      <c r="E398" s="81"/>
-      <c r="F398" s="81"/>
-      <c r="G398" s="81"/>
-      <c r="H398" s="81"/>
-      <c r="I398" s="81"/>
-      <c r="J398" s="81"/>
-      <c r="K398" s="81"/>
-      <c r="L398" s="81"/>
-      <c r="M398" s="81"/>
-      <c r="N398" s="81"/>
-      <c r="O398" s="81"/>
-      <c r="P398" s="81"/>
-      <c r="Q398" s="81"/>
-      <c r="R398" s="81"/>
-      <c r="S398" s="81"/>
-      <c r="T398" s="81"/>
-      <c r="U398" s="81"/>
-      <c r="V398" s="81"/>
+      <c r="B398" s="80"/>
+      <c r="C398" s="80"/>
+      <c r="D398" s="80"/>
+      <c r="E398" s="80"/>
+      <c r="F398" s="80"/>
+      <c r="G398" s="80"/>
+      <c r="H398" s="80"/>
+      <c r="I398" s="80"/>
+      <c r="J398" s="80"/>
+      <c r="K398" s="80"/>
+      <c r="L398" s="80"/>
+      <c r="M398" s="80"/>
+      <c r="N398" s="80"/>
+      <c r="O398" s="80"/>
+      <c r="P398" s="80"/>
+      <c r="Q398" s="80"/>
+      <c r="R398" s="80"/>
+      <c r="S398" s="80"/>
+      <c r="T398" s="80"/>
+      <c r="U398" s="80"/>
+      <c r="V398" s="80"/>
     </row>
     <row r="399" spans="1:22">
       <c r="B399" t="s">
@@ -18619,27 +21328,27 @@
       </c>
     </row>
     <row r="521" spans="1:21">
-      <c r="A521" s="81"/>
-      <c r="B521" s="81"/>
-      <c r="C521" s="81"/>
-      <c r="D521" s="81"/>
-      <c r="E521" s="81"/>
-      <c r="F521" s="81"/>
-      <c r="G521" s="81"/>
-      <c r="H521" s="81"/>
-      <c r="I521" s="81"/>
-      <c r="J521" s="81"/>
-      <c r="K521" s="81"/>
-      <c r="L521" s="81"/>
-      <c r="M521" s="81"/>
-      <c r="N521" s="81"/>
-      <c r="O521" s="81"/>
-      <c r="P521" s="81"/>
-      <c r="Q521" s="81"/>
-      <c r="R521" s="81"/>
-      <c r="S521" s="81"/>
-      <c r="T521" s="81"/>
-      <c r="U521" s="81"/>
+      <c r="A521" s="80"/>
+      <c r="B521" s="80"/>
+      <c r="C521" s="80"/>
+      <c r="D521" s="80"/>
+      <c r="E521" s="80"/>
+      <c r="F521" s="80"/>
+      <c r="G521" s="80"/>
+      <c r="H521" s="80"/>
+      <c r="I521" s="80"/>
+      <c r="J521" s="80"/>
+      <c r="K521" s="80"/>
+      <c r="L521" s="80"/>
+      <c r="M521" s="80"/>
+      <c r="N521" s="80"/>
+      <c r="O521" s="80"/>
+      <c r="P521" s="80"/>
+      <c r="Q521" s="80"/>
+      <c r="R521" s="80"/>
+      <c r="S521" s="80"/>
+      <c r="T521" s="80"/>
+      <c r="U521" s="80"/>
     </row>
     <row r="522" spans="1:21">
       <c r="A522" t="s">
@@ -19168,7 +21877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A88AFF-48E7-42DE-91DB-FE93976C7509}">
   <dimension ref="A1:P91"/>
   <sheetViews>
@@ -19419,22 +22128,22 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="282.75" customHeight="1">
-      <c r="C45" s="80" t="s">
+      <c r="C45" s="84" t="s">
         <v>595</v>
       </c>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="80"/>
-      <c r="P45" s="80"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="84"/>
+      <c r="N45" s="84"/>
+      <c r="O45" s="84"/>
+      <c r="P45" s="84"/>
     </row>
     <row r="46" spans="1:16">
       <c r="B46" s="27" t="s">
@@ -19741,7 +22450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF18A6D2-0653-4751-98B9-F75A91F06312}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:A16"/>
@@ -19802,400 +22511,4 @@
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1509A573-1DE9-42B0-BA40-6A09D242D4F0}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L89"/>
-  <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="39.75">
-      <c r="A1" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="22.5">
-      <c r="A5" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="22.5">
-      <c r="A11" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="5"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="24">
-      <c r="A18" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="22.5">
-      <c r="A28" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="39.75">
-      <c r="A36" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="30">
-      <c r="A38" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="5"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="30">
-      <c r="A46" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="22.5">
-      <c r="A48" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>82</v>
-      </c>
-      <c r="H50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>83</v>
-      </c>
-      <c r="H51" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="H52" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="H53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="30">
-      <c r="A55" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="5"/>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="39.75">
-      <c r="A73" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="L73" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L75" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" t="s">
-        <v>104</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="L77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="5"/>
-      <c r="L79" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="L80" s="5"/>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="5"/>
-      <c r="L81" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="L82" s="5"/>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="5"/>
-      <c r="L83" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L84" s="5"/>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="5"/>
-      <c r="L85" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="L86" s="5"/>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="L87" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="L88" s="5"/>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="L89" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>